--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.012920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.012920.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2327,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4007,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4343,12 +4343,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5271,12 +5271,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5439,12 +5439,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5607,12 +5607,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5649,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6069,12 +6069,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6489,12 +6489,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6615,12 +6615,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8459,12 +8459,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8627,12 +8627,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9173,12 +9173,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9345,12 +9345,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9895,12 +9895,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10357,12 +10357,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10693,12 +10693,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10987,12 +10987,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11323,12 +11323,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11449,12 +11449,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11743,12 +11743,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12251,12 +12251,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12377,12 +12377,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12503,12 +12503,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12545,12 +12545,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12629,12 +12629,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12713,12 +12713,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12797,12 +12797,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12923,12 +12923,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13137,12 +13137,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13473,12 +13473,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13939,12 +13939,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14153,12 +14153,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14749,12 +14749,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14879,12 +14879,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15089,12 +15089,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15983,12 +15983,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16193,12 +16193,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16361,12 +16361,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18053,12 +18053,12 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18095,12 +18095,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18137,12 +18137,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18263,12 +18263,12 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19321,12 +19321,12 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19447,12 +19447,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20001,12 +20001,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20589,12 +20589,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20631,12 +20631,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20719,12 +20719,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21139,12 +21139,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21479,12 +21479,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21563,12 +21563,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21815,12 +21815,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21983,12 +21983,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22193,12 +22193,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23033,12 +23033,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23117,12 +23117,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24259,12 +24259,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25519,12 +25519,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25645,12 +25645,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25687,12 +25687,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25855,12 +25855,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26065,12 +26065,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26191,12 +26191,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26275,12 +26275,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26317,12 +26317,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26569,12 +26569,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26653,12 +26653,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26821,12 +26821,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26989,12 +26989,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27203,12 +27203,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27455,12 +27455,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27539,12 +27539,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27669,12 +27669,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27887,12 +27887,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28017,12 +28017,12 @@
       <c r="H654" t="inlineStr"/>
       <c r="I654" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28147,12 +28147,12 @@
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28361,12 +28361,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28491,12 +28491,12 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28663,12 +28663,12 @@
       <c r="H669" t="inlineStr"/>
       <c r="I669" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28877,12 +28877,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -29091,12 +29091,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29221,12 +29221,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29481,12 +29481,12 @@
       <c r="H688" t="inlineStr"/>
       <c r="I688" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29611,12 +29611,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29825,12 +29825,12 @@
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29909,12 +29909,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30791,12 +30791,12 @@
       <c r="H719" t="inlineStr"/>
       <c r="I719" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30833,12 +30833,12 @@
       <c r="H720" t="inlineStr"/>
       <c r="I720" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31173,12 +31173,12 @@
       <c r="H728" t="inlineStr"/>
       <c r="I728" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31215,12 +31215,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31635,12 +31635,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32055,12 +32055,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -32097,12 +32097,12 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32521,12 +32521,12 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32647,12 +32647,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33067,12 +33067,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34457,12 +34457,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34797,12 +34797,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34881,12 +34881,12 @@
       <c r="H816" t="inlineStr"/>
       <c r="I816" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35553,12 +35553,12 @@
       <c r="H832" t="inlineStr"/>
       <c r="I832" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35805,12 +35805,12 @@
       <c r="H838" t="inlineStr"/>
       <c r="I838" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35973,12 +35973,12 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37073,12 +37073,12 @@
       <c r="H868" t="inlineStr"/>
       <c r="I868" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37115,12 +37115,12 @@
       <c r="H869" t="inlineStr"/>
       <c r="I869" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37325,12 +37325,12 @@
       <c r="H874" t="inlineStr"/>
       <c r="I874" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37669,12 +37669,12 @@
       <c r="H882" t="inlineStr"/>
       <c r="I882" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37711,12 +37711,12 @@
       <c r="H883" t="inlineStr"/>
       <c r="I883" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38509,12 +38509,12 @@
       <c r="H902" t="inlineStr"/>
       <c r="I902" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39731,12 +39731,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39773,12 +39773,12 @@
       <c r="H932" t="inlineStr"/>
       <c r="I932" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40025,12 +40025,12 @@
       <c r="H938" t="inlineStr"/>
       <c r="I938" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40109,12 +40109,12 @@
       <c r="H940" t="inlineStr"/>
       <c r="I940" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40579,12 +40579,12 @@
       <c r="H951" t="inlineStr"/>
       <c r="I951" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
